--- a/Correlation.xlsx
+++ b/Correlation.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>BANKBARODA.NS</t>
+  </si>
+  <si>
+    <t>SBIN.NS</t>
   </si>
   <si>
     <t>TCS.NS</t>
@@ -377,21 +380,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,17 +405,37 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>0.9382723824485414</v>
+      </c>
+      <c r="D2">
         <v>-0.371954470165741</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.9382723824485414</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-0.2313499481375167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>-0.371954470165741</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>-0.2313499481375167</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>

--- a/Correlation.xlsx
+++ b/Correlation.xlsx
@@ -14,15 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>BANKBARODA.NS</t>
   </si>
   <si>
-    <t>SBIN.NS</t>
+    <t>COALINDIA.NS</t>
   </si>
   <si>
-    <t>TCS.NS</t>
+    <t>FEDERALBNK.NS</t>
+  </si>
+  <si>
+    <t>ITC.NS</t>
+  </si>
+  <si>
+    <t>NTPC.NS</t>
   </si>
 </sst>
 </file>
@@ -380,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +402,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,37 +417,95 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9382723824485414</v>
+        <v>0.8565572147936436</v>
       </c>
       <c r="D2">
-        <v>-0.371954470165741</v>
+        <v>0.9407805358380734</v>
+      </c>
+      <c r="E2">
+        <v>0.7986476989216527</v>
+      </c>
+      <c r="F2">
+        <v>0.8032701899987355</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9382723824485414</v>
+        <v>0.8565572147936436</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.2313499481375167</v>
+        <v>0.8883387406983509</v>
+      </c>
+      <c r="E3">
+        <v>0.9511722837773408</v>
+      </c>
+      <c r="F3">
+        <v>0.9273551533990176</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.371954470165741</v>
+        <v>0.9407805358380734</v>
       </c>
       <c r="C4">
-        <v>-0.2313499481375167</v>
+        <v>0.8883387406983509</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.837273239528787</v>
+      </c>
+      <c r="F4">
+        <v>0.8139128869728565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.7986476989216527</v>
+      </c>
+      <c r="C5">
+        <v>0.9511722837773408</v>
+      </c>
+      <c r="D5">
+        <v>0.837273239528787</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.9122465963922274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.8032701899987355</v>
+      </c>
+      <c r="C6">
+        <v>0.9273551533990176</v>
+      </c>
+      <c r="D6">
+        <v>0.8139128869728565</v>
+      </c>
+      <c r="E6">
+        <v>0.9122465963922274</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
     </row>
